--- a/biology/Zoologie/Conus_pseudocedonulli/Conus_pseudocedonulli.xlsx
+++ b/biology/Zoologie/Conus_pseudocedonulli/Conus_pseudocedonulli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus pseudocedonulli est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus pseudocedonulli a été décrite pour la première fois en 1818 par le zoologiste et anatomiste français Henri-Marie Ducrotay de Blainville dans « Dictionnaire des Sciences Naturelles »[1],[2].
-Synonymes
-Conus (Cylinder) pseudocedonulli Blainville, 1818 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus pseudocedonulli a été décrite pour la première fois en 1818 par le zoologiste et anatomiste français Henri-Marie Ducrotay de Blainville dans « Dictionnaire des Sciences Naturelles »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_pseudocedonulli</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_pseudocedonulli</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Cylinder) pseudocedonulli Blainville, 1818 · appellation alternative
 Conus ammiralis pseudocedonulli Blainville, 1818 · non accepté
 Conus blainvillii Vignard, 1829 · non accepté
 Conus hereditarius da Motta, 1987 · non accepté</t>
